--- a/data/OI_T-2_vs_type_disagg_20250827_v4.xlsx
+++ b/data/OI_T-2_vs_type_disagg_20250827_v4.xlsx
@@ -768,22 +768,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>17654</v>
+        <v>17445</v>
       </c>
       <c r="C2">
-        <v>37.3</v>
+        <v>35.6</v>
       </c>
       <c r="D2">
         <v>12862</v>
       </c>
       <c r="E2">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="F2">
         <v>16998</v>
       </c>
       <c r="G2">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>13624</v>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>17654</v>
+        <v>17445</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -806,22 +806,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4170</v>
+        <v>4105</v>
       </c>
       <c r="C3">
-        <v>19.5</v>
+        <v>17.7</v>
       </c>
       <c r="D3">
         <v>3489</v>
       </c>
       <c r="E3">
-        <v>-13.8</v>
+        <v>-15.2</v>
       </c>
       <c r="F3">
         <v>4840</v>
       </c>
       <c r="G3">
-        <v>53.3</v>
+        <v>50.9</v>
       </c>
       <c r="H3">
         <v>2720</v>
@@ -836,7 +836,7 @@
         <v>8.33</v>
       </c>
       <c r="L3">
-        <v>34736</v>
+        <v>34195</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -882,22 +882,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>37665</v>
+        <v>39183</v>
       </c>
       <c r="C5">
-        <v>23.7</v>
+        <v>28.7</v>
       </c>
       <c r="D5">
         <v>30446</v>
       </c>
       <c r="E5">
-        <v>-16.7</v>
+        <v>-13.3</v>
       </c>
       <c r="F5">
         <v>45218</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H5">
         <v>36846</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>37665</v>
+        <v>39183</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -920,22 +920,22 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>16924</v>
+        <v>17569</v>
       </c>
       <c r="C6">
-        <v>-23.9</v>
+        <v>-21</v>
       </c>
       <c r="D6">
         <v>22251</v>
       </c>
       <c r="E6">
-        <v>-3.7</v>
+        <v>-0</v>
       </c>
       <c r="F6">
         <v>17574</v>
       </c>
       <c r="G6">
-        <v>20.1</v>
+        <v>24.7</v>
       </c>
       <c r="H6">
         <v>14089</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>16924</v>
+        <v>17569</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -958,22 +958,22 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>4384</v>
+        <v>4476</v>
       </c>
       <c r="C7">
-        <v>40.7</v>
+        <v>43.6</v>
       </c>
       <c r="D7">
         <v>3116</v>
       </c>
       <c r="E7">
-        <v>46.6</v>
+        <v>49.7</v>
       </c>
       <c r="F7">
         <v>2990</v>
       </c>
       <c r="G7">
-        <v>34.7</v>
+        <v>37.6</v>
       </c>
       <c r="H7">
         <v>3254</v>
@@ -988,7 +988,7 @@
         <v>6.35</v>
       </c>
       <c r="L7">
-        <v>27838</v>
+        <v>28423</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>5475</v>
+        <v>5291</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="D8">
         <v>5337</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>33.3</v>
       </c>
       <c r="F8">
         <v>3968</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>36.2</v>
       </c>
       <c r="H8">
         <v>3884</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>5475</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1034,22 +1034,22 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>3798</v>
+        <v>3686</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>-0.4</v>
       </c>
       <c r="D9">
         <v>3700</v>
       </c>
       <c r="E9">
-        <v>27.1</v>
+        <v>23.4</v>
       </c>
       <c r="F9">
         <v>2988</v>
       </c>
       <c r="G9">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>3352</v>
@@ -1064,7 +1064,7 @@
         <v>6.35</v>
       </c>
       <c r="L9">
-        <v>24117</v>
+        <v>23406</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1072,25 +1072,25 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>159322</v>
+        <v>109757</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>-13.7</v>
       </c>
       <c r="D10">
-        <v>152360</v>
+        <v>127113</v>
       </c>
       <c r="E10">
-        <v>9.699999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F10">
-        <v>145290</v>
+        <v>120981</v>
       </c>
       <c r="G10">
-        <v>36.4</v>
+        <v>23.6</v>
       </c>
       <c r="H10">
-        <v>116767</v>
+        <v>88801</v>
       </c>
       <c r="I10" t="s">
         <v>65</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>159322</v>
+        <v>109757</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1110,22 +1110,22 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C11">
-        <v>22.3</v>
+        <v>12.6</v>
       </c>
       <c r="D11">
         <v>358</v>
       </c>
       <c r="E11">
-        <v>-14.6</v>
+        <v>-21.4</v>
       </c>
       <c r="F11">
         <v>513</v>
       </c>
       <c r="G11">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
         <v>394</v>
@@ -1140,7 +1140,7 @@
         <v>8.33</v>
       </c>
       <c r="L11">
-        <v>3649</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1148,22 +1148,22 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C12">
-        <v>-12.5</v>
+        <v>-14.2</v>
       </c>
       <c r="D12">
         <v>590</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="F12">
         <v>512</v>
       </c>
       <c r="G12">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
       <c r="H12">
         <v>438</v>
@@ -1178,7 +1178,7 @@
         <v>8.9</v>
       </c>
       <c r="L12">
-        <v>4592</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1186,25 +1186,25 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>128785</v>
+        <v>121692</v>
       </c>
       <c r="C13">
-        <v>-1.9</v>
+        <v>-3.9</v>
       </c>
       <c r="D13">
-        <v>131339</v>
+        <v>126642</v>
       </c>
       <c r="E13">
-        <v>16.8</v>
+        <v>18.7</v>
       </c>
       <c r="F13">
-        <v>110268</v>
+        <v>102561</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>24.1</v>
       </c>
       <c r="H13">
-        <v>104709</v>
+        <v>98095</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
@@ -1216,7 +1216,7 @@
         <v>0.745</v>
       </c>
       <c r="L13">
-        <v>95945</v>
+        <v>90661</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1224,22 +1224,22 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>9298</v>
+        <v>9364</v>
       </c>
       <c r="C14">
-        <v>-3.9</v>
+        <v>-3.2</v>
       </c>
       <c r="D14">
         <v>9676</v>
       </c>
       <c r="E14">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="F14">
         <v>7968</v>
       </c>
       <c r="G14">
-        <v>-4.1</v>
+        <v>-3.4</v>
       </c>
       <c r="H14">
         <v>9692</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>9298</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1262,22 +1262,22 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>1639</v>
+        <v>1574</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="D15">
         <v>1477</v>
       </c>
       <c r="E15">
-        <v>-35.5</v>
+        <v>-38.1</v>
       </c>
       <c r="F15">
         <v>2543</v>
       </c>
       <c r="G15">
-        <v>17.4</v>
+        <v>12.8</v>
       </c>
       <c r="H15">
         <v>1396</v>
@@ -1292,7 +1292,7 @@
         <v>8.33</v>
       </c>
       <c r="L15">
-        <v>13653</v>
+        <v>13111</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1300,22 +1300,22 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>40517</v>
+        <v>40992</v>
       </c>
       <c r="C16">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="D16">
         <v>37004</v>
       </c>
       <c r="E16">
-        <v>-32.6</v>
+        <v>-31.9</v>
       </c>
       <c r="F16">
         <v>60152</v>
       </c>
       <c r="G16">
-        <v>-9.6</v>
+        <v>-8.5</v>
       </c>
       <c r="H16">
         <v>44817</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>40517</v>
+        <v>40992</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1414,22 +1414,22 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C19">
-        <v>-41.4</v>
+        <v>-39.3</v>
       </c>
       <c r="D19">
         <v>290</v>
       </c>
       <c r="E19">
-        <v>-39.5</v>
+        <v>-37.4</v>
       </c>
       <c r="F19">
         <v>281</v>
       </c>
       <c r="G19">
-        <v>-22.4</v>
+        <v>-19.6</v>
       </c>
       <c r="H19">
         <v>219</v>
@@ -1444,7 +1444,7 @@
         <v>7.89</v>
       </c>
       <c r="L19">
-        <v>1341</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1490,22 +1490,22 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>2553</v>
+        <v>2623</v>
       </c>
       <c r="C21">
-        <v>23.7</v>
+        <v>27.1</v>
       </c>
       <c r="D21">
         <v>2064</v>
       </c>
       <c r="E21">
-        <v>28.2</v>
+        <v>31.7</v>
       </c>
       <c r="F21">
         <v>1991</v>
       </c>
       <c r="G21">
-        <v>65.8</v>
+        <v>70.3</v>
       </c>
       <c r="H21">
         <v>1540</v>
@@ -1520,7 +1520,7 @@
         <v>8.9</v>
       </c>
       <c r="L21">
-        <v>22722</v>
+        <v>23345</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1528,22 +1528,22 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>2512</v>
+        <v>2478</v>
       </c>
       <c r="C22">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D22">
         <v>2288</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>57.8</v>
       </c>
       <c r="F22">
         <v>1570</v>
       </c>
       <c r="G22">
-        <v>55.6</v>
+        <v>53.5</v>
       </c>
       <c r="H22">
         <v>1614</v>
@@ -1558,7 +1558,7 @@
         <v>6.35</v>
       </c>
       <c r="L22">
-        <v>15951</v>
+        <v>15735</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1566,22 +1566,22 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>4913</v>
+        <v>4548</v>
       </c>
       <c r="C23">
-        <v>21.2</v>
+        <v>12.2</v>
       </c>
       <c r="D23">
         <v>4055</v>
       </c>
       <c r="E23">
-        <v>15.5</v>
+        <v>6.9</v>
       </c>
       <c r="F23">
         <v>4253</v>
       </c>
       <c r="G23">
-        <v>68.59999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="H23">
         <v>2914</v>
@@ -1596,7 +1596,7 @@
         <v>6.35</v>
       </c>
       <c r="L23">
-        <v>31198</v>
+        <v>28880</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1604,22 +1604,22 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C24">
-        <v>-9.4</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
         <v>244</v>
       </c>
       <c r="E24">
-        <v>160</v>
+        <v>189.4</v>
       </c>
       <c r="F24">
         <v>85</v>
       </c>
       <c r="G24">
-        <v>28.5</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>172</v>
@@ -1634,7 +1634,7 @@
         <v>6.35</v>
       </c>
       <c r="L24">
-        <v>1403</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1642,22 +1642,22 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C25">
-        <v>-5.3</v>
+        <v>-2.8</v>
       </c>
       <c r="D25">
         <v>399</v>
       </c>
       <c r="E25">
-        <v>11.2</v>
+        <v>14.1</v>
       </c>
       <c r="F25">
         <v>340</v>
       </c>
       <c r="G25">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>356</v>
@@ -1672,7 +1672,7 @@
         <v>6.35</v>
       </c>
       <c r="L25">
-        <v>2400</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1680,22 +1680,22 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2189</v>
+        <v>2204</v>
       </c>
       <c r="C26">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="D26">
         <v>1240</v>
       </c>
       <c r="E26">
-        <v>94.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F26">
         <v>1124</v>
       </c>
       <c r="G26">
-        <v>176.7</v>
+        <v>178.6</v>
       </c>
       <c r="H26">
         <v>791</v>
@@ -1710,7 +1710,7 @@
         <v>6.35</v>
       </c>
       <c r="L26">
-        <v>13900</v>
+        <v>13995</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1718,22 +1718,22 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>7514</v>
+        <v>7688</v>
       </c>
       <c r="C27">
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
       <c r="D27">
         <v>6966</v>
       </c>
       <c r="E27">
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
       <c r="F27">
         <v>6786</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="H27">
         <v>6960</v>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>7514</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1756,22 +1756,22 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>9753</v>
+        <v>10764</v>
       </c>
       <c r="C28">
-        <v>-17.7</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D28">
         <v>11850</v>
       </c>
       <c r="E28">
-        <v>20.3</v>
+        <v>32.8</v>
       </c>
       <c r="F28">
         <v>8105</v>
       </c>
       <c r="G28">
-        <v>15.1</v>
+        <v>27.1</v>
       </c>
       <c r="H28">
         <v>8471</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>9753</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1794,22 +1794,22 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>4198</v>
+        <v>3917</v>
       </c>
       <c r="C29">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="D29">
         <v>4719</v>
       </c>
       <c r="E29">
-        <v>20.5</v>
+        <v>12.4</v>
       </c>
       <c r="F29">
         <v>3485</v>
       </c>
       <c r="G29">
-        <v>65.09999999999999</v>
+        <v>54.1</v>
       </c>
       <c r="H29">
         <v>2542</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>4198</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1832,22 +1832,22 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>2836</v>
+        <v>2806</v>
       </c>
       <c r="C30">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="D30">
         <v>2446</v>
       </c>
       <c r="E30">
-        <v>-3.1</v>
+        <v>-4.1</v>
       </c>
       <c r="F30">
         <v>2927</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>48.4</v>
       </c>
       <c r="H30">
         <v>1891</v>
@@ -1862,7 +1862,7 @@
         <v>8.9</v>
       </c>
       <c r="L30">
-        <v>25240</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1870,22 +1870,22 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>2981</v>
+        <v>3024</v>
       </c>
       <c r="C31">
-        <v>12.8</v>
+        <v>14.4</v>
       </c>
       <c r="D31">
         <v>2643</v>
       </c>
       <c r="E31">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="F31">
         <v>2667</v>
       </c>
       <c r="G31">
-        <v>43.2</v>
+        <v>45.2</v>
       </c>
       <c r="H31">
         <v>2082</v>
@@ -1900,7 +1900,7 @@
         <v>8.9</v>
       </c>
       <c r="L31">
-        <v>26531</v>
+        <v>26914</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1908,22 +1908,22 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="C32">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="D32">
         <v>1283</v>
       </c>
       <c r="E32">
-        <v>-12.2</v>
+        <v>-13.3</v>
       </c>
       <c r="F32">
         <v>1561</v>
       </c>
       <c r="G32">
-        <v>20.9</v>
+        <v>19.4</v>
       </c>
       <c r="H32">
         <v>1134</v>
@@ -1938,7 +1938,7 @@
         <v>8.9</v>
       </c>
       <c r="L32">
-        <v>12202</v>
+        <v>12051</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1984,22 +1984,22 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>791</v>
+        <v>741</v>
       </c>
       <c r="C34">
-        <v>-86.40000000000001</v>
+        <v>-87.3</v>
       </c>
       <c r="D34">
         <v>5817</v>
       </c>
       <c r="E34">
-        <v>-83.40000000000001</v>
+        <v>-84.40000000000001</v>
       </c>
       <c r="F34">
         <v>4763</v>
       </c>
       <c r="G34">
-        <v>-74</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="H34">
         <v>3043</v>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>791</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2098,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2564</v>
+        <v>2625</v>
       </c>
       <c r="C37">
-        <v>-19.8</v>
+        <v>-17.9</v>
       </c>
       <c r="D37">
         <v>3197</v>
       </c>
       <c r="E37">
-        <v>-2</v>
+        <v>0.4</v>
       </c>
       <c r="F37">
         <v>2615</v>
       </c>
       <c r="G37">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H37">
         <v>2392</v>
@@ -2128,7 +2128,7 @@
         <v>6.35</v>
       </c>
       <c r="L37">
-        <v>16281</v>
+        <v>16669</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2171,22 +2171,22 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>18547</v>
+        <v>20260</v>
       </c>
       <c r="C39">
-        <v>-7.9</v>
+        <v>0.6</v>
       </c>
       <c r="D39">
         <v>20146</v>
       </c>
       <c r="E39">
-        <v>-37.3</v>
+        <v>-31.5</v>
       </c>
       <c r="F39">
         <v>29571</v>
       </c>
       <c r="G39">
-        <v>-10.3</v>
+        <v>-2</v>
       </c>
       <c r="H39">
         <v>20667</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>18547</v>
+        <v>20260</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2209,22 +2209,22 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>2333</v>
+        <v>2433</v>
       </c>
       <c r="C40">
-        <v>-14.2</v>
+        <v>-10.6</v>
       </c>
       <c r="D40">
         <v>2720</v>
       </c>
       <c r="E40">
-        <v>115</v>
+        <v>124.2</v>
       </c>
       <c r="F40">
         <v>1085</v>
       </c>
       <c r="G40">
-        <v>224</v>
+        <v>237.9</v>
       </c>
       <c r="H40">
         <v>720</v>
@@ -2239,7 +2239,7 @@
         <v>6.35</v>
       </c>
       <c r="L40">
-        <v>14815</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2247,22 +2247,22 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>11558</v>
+        <v>12518</v>
       </c>
       <c r="C41">
-        <v>-33.7</v>
+        <v>-28.2</v>
       </c>
       <c r="D41">
         <v>17432</v>
       </c>
       <c r="E41">
-        <v>-23.9</v>
+        <v>-17.5</v>
       </c>
       <c r="F41">
         <v>15179</v>
       </c>
       <c r="G41">
-        <v>-7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H41">
         <v>12449</v>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>11558</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2285,22 +2285,22 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>12412</v>
+        <v>12629</v>
       </c>
       <c r="C42">
-        <v>37.4</v>
+        <v>39.8</v>
       </c>
       <c r="D42">
         <v>9034</v>
       </c>
       <c r="E42">
-        <v>-5.4</v>
+        <v>-3.7</v>
       </c>
       <c r="F42">
         <v>13115</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>10.9</v>
       </c>
       <c r="H42">
         <v>11392</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>12412</v>
+        <v>12629</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2323,22 +2323,22 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>5684</v>
+        <v>5785</v>
       </c>
       <c r="C43">
-        <v>-34.1</v>
+        <v>-32.9</v>
       </c>
       <c r="D43">
         <v>8621</v>
       </c>
       <c r="E43">
-        <v>-3.8</v>
+        <v>-2</v>
       </c>
       <c r="F43">
         <v>5906</v>
       </c>
       <c r="G43">
-        <v>33.3</v>
+        <v>35.7</v>
       </c>
       <c r="H43">
         <v>4263</v>
@@ -2353,7 +2353,7 @@
         <v>6.35</v>
       </c>
       <c r="L43">
-        <v>36093</v>
+        <v>36735</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2361,22 +2361,22 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="C44">
-        <v>-17</v>
+        <v>-15.9</v>
       </c>
       <c r="D44">
         <v>1050</v>
       </c>
       <c r="E44">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>874</v>
       </c>
       <c r="G44">
-        <v>81.7</v>
+        <v>84</v>
       </c>
       <c r="H44">
         <v>480</v>
@@ -2391,7 +2391,7 @@
         <v>6.35</v>
       </c>
       <c r="L44">
-        <v>5537</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2437,25 +2437,19 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>3562</v>
-      </c>
-      <c r="C46">
-        <v>-14.1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4149</v>
-      </c>
-      <c r="E46">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>3231</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>52</v>
+        <v>-100</v>
       </c>
       <c r="H46">
-        <v>2343</v>
+        <v>377</v>
       </c>
       <c r="I46" t="s">
         <v>63</v>
@@ -2467,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2475,25 +2469,19 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>4528</v>
-      </c>
-      <c r="C47">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>3324</v>
-      </c>
-      <c r="E47">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>4331</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>28.7</v>
+        <v>-100</v>
       </c>
       <c r="H47">
-        <v>3517</v>
+        <v>544</v>
       </c>
       <c r="I47" t="s">
         <v>62</v>
@@ -2505,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>4528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2513,22 +2501,22 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>21247</v>
+        <v>22071</v>
       </c>
       <c r="C48">
-        <v>-5.4</v>
+        <v>-1.7</v>
       </c>
       <c r="D48">
         <v>22458</v>
       </c>
       <c r="E48">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>22065</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="H48">
         <v>18165</v>
@@ -2543,7 +2531,7 @@
         <v>0.745</v>
       </c>
       <c r="L48">
-        <v>15829</v>
+        <v>16443</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2551,22 +2539,22 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>45526</v>
+        <v>45365</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="D49">
         <v>34488</v>
       </c>
       <c r="E49">
-        <v>169</v>
+        <v>168.1</v>
       </c>
       <c r="F49">
         <v>16924</v>
       </c>
       <c r="G49">
-        <v>139.2</v>
+        <v>138.3</v>
       </c>
       <c r="H49">
         <v>19036</v>
@@ -2581,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>45526</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2589,7 +2577,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C50">
         <v>-9.4</v>
@@ -2604,7 +2592,7 @@
         <v>2201</v>
       </c>
       <c r="G50">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="H50">
         <v>2041</v>
@@ -2619,7 +2607,7 @@
         <v>7.89</v>
       </c>
       <c r="L50">
-        <v>18273</v>
+        <v>18265</v>
       </c>
     </row>
     <row r="51" spans="1:12">
